--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$145</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5155" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="897">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1375,6 +1378,87 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=OBS,moodCode=EVN,code="annotation"].value</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.extension:NoteScope</t>
+  </si>
+  <si>
+    <t>NoteScope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medicationrequest-note-scope}
+</t>
+  </si>
+  <si>
+    <t>Périmètre de la note</t>
+  </si>
+  <si>
+    <t>Périmètre indiquant la portée de la note</t>
+  </si>
+  <si>
+    <t>Extension utilisée pour le traduction de message PN13 en FHIR afin de donner le périmètre de la note pour éviter la concatenation d'élément textuel en une seule note difficile à comprendre</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction</t>
@@ -2846,6 +2930,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -3022,7 +3121,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO139"/>
+  <dimension ref="A1:AO145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3198,7 +3297,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -3313,7 +3412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -3430,7 +3529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -3545,7 +3644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -3662,7 +3761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -3779,7 +3878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -3896,7 +3995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -4013,7 +4112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -4126,7 +4225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -4243,7 +4342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>147</v>
       </c>
@@ -4358,7 +4457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>154</v>
       </c>
@@ -4473,7 +4572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>158</v>
       </c>
@@ -4590,7 +4689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>165</v>
       </c>
@@ -4707,7 +4806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>175</v>
       </c>
@@ -4822,7 +4921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>177</v>
       </c>
@@ -4939,7 +5038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>183</v>
       </c>
@@ -5058,7 +5157,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>193</v>
       </c>
@@ -5177,7 +5276,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>202</v>
       </c>
@@ -5296,7 +5395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>207</v>
       </c>
@@ -5413,7 +5512,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>217</v>
       </c>
@@ -5530,7 +5629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>228</v>
       </c>
@@ -5647,7 +5746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>237</v>
       </c>
@@ -5764,7 +5863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>246</v>
       </c>
@@ -5881,7 +5980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>254</v>
       </c>
@@ -5996,7 +6095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>262</v>
       </c>
@@ -6113,7 +6212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>268</v>
       </c>
@@ -6228,7 +6327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>273</v>
       </c>
@@ -6345,7 +6444,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>283</v>
       </c>
@@ -6462,7 +6561,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>293</v>
       </c>
@@ -6579,7 +6678,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>302</v>
       </c>
@@ -6694,7 +6793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>308</v>
       </c>
@@ -6809,7 +6908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>309</v>
       </c>
@@ -6926,7 +7025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>310</v>
       </c>
@@ -7043,7 +7142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>315</v>
       </c>
@@ -7160,7 +7259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>321</v>
       </c>
@@ -7277,7 +7376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>328</v>
       </c>
@@ -7394,7 +7493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>334</v>
       </c>
@@ -7511,7 +7610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>339</v>
       </c>
@@ -7626,7 +7725,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>348</v>
       </c>
@@ -7741,7 +7840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>354</v>
       </c>
@@ -7856,7 +7955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>361</v>
       </c>
@@ -7973,7 +8072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>369</v>
       </c>
@@ -8088,7 +8187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>375</v>
       </c>
@@ -8205,7 +8304,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>386</v>
       </c>
@@ -8322,7 +8421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>393</v>
       </c>
@@ -8437,7 +8536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>399</v>
       </c>
@@ -8552,7 +8651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>402</v>
       </c>
@@ -8667,7 +8766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>408</v>
       </c>
@@ -8784,7 +8883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>414</v>
       </c>
@@ -8901,7 +9000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>421</v>
       </c>
@@ -9016,7 +9115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>427</v>
       </c>
@@ -9131,7 +9230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>434</v>
       </c>
@@ -9144,10 +9243,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -9159,17 +9258,15 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>435</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>436</v>
+        <v>150</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -9218,28 +9315,28 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>434</v>
+        <v>152</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>439</v>
+        <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>440</v>
+        <v>153</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
@@ -9248,23 +9345,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -9276,15 +9373,17 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -9321,31 +9420,31 @@
         <v>20</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -9363,26 +9462,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="D55" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>20</v>
@@ -9391,16 +9492,16 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>438</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>180</v>
+        <v>439</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>181</v>
+        <v>440</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>182</v>
+        <v>441</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9438,16 +9539,16 @@
         <v>20</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>157</v>
@@ -9471,7 +9572,7 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>20</v>
@@ -9480,48 +9581,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -9575,13 +9674,13 @@
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
@@ -9590,21 +9689,21 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AN56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>20</v>
-      </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9627,7 +9726,7 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>340</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>450</v>
@@ -9636,9 +9735,7 @@
         <v>451</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -9686,7 +9783,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9707,21 +9804,21 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AN57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="B58" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9729,7 +9826,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>89</v>
@@ -9744,18 +9841,16 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>459</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -9803,10 +9898,10 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>89</v>
@@ -9824,21 +9919,21 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>461</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9846,7 +9941,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -9858,23 +9953,21 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>168</v>
+        <v>461</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>466</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -9898,13 +9991,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>467</v>
+        <v>20</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>468</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -9922,7 +10015,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9937,27 +10030,27 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>20</v>
+        <v>465</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>470</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9977,16 +10070,16 @@
         <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>472</v>
+        <v>150</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>473</v>
+        <v>151</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -10037,7 +10130,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>474</v>
+        <v>152</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -10049,7 +10142,7 @@
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -10058,32 +10151,32 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>454</v>
+        <v>153</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>470</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -10092,23 +10185,21 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>476</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>477</v>
+        <v>180</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>478</v>
+        <v>181</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
       </c>
@@ -10144,31 +10235,31 @@
         <v>20</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>481</v>
+        <v>157</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
@@ -10177,7 +10268,7 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>482</v>
+        <v>153</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>20</v>
@@ -10186,44 +10277,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>150</v>
+        <v>471</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -10271,19 +10366,19 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>152</v>
+        <v>473</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
@@ -10292,7 +10387,7 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>20</v>
@@ -10301,23 +10396,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -10326,21 +10421,21 @@
         <v>20</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>180</v>
+        <v>476</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -10376,31 +10471,31 @@
         <v>20</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>157</v>
+        <v>479</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
@@ -10409,56 +10504,54 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>153</v>
+        <v>480</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>20</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>205</v>
+        <v>485</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -10507,19 +10600,19 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
@@ -10528,21 +10621,21 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>132</v>
+        <v>480</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>20</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10565,17 +10658,19 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>340</v>
+        <v>168</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -10600,13 +10695,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>20</v>
+        <v>493</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>20</v>
+        <v>494</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -10624,7 +10719,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10645,21 +10740,21 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>20</v>
+        <v>496</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10682,18 +10777,16 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>493</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>496</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>20</v>
       </c>
@@ -10741,7 +10834,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10753,7 +10846,7 @@
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>498</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
@@ -10762,21 +10855,21 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>20</v>
+        <v>496</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10796,19 +10889,23 @@
         <v>20</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>149</v>
+        <v>502</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>150</v>
+        <v>503</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
       </c>
@@ -10856,7 +10953,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>152</v>
+        <v>507</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10868,7 +10965,7 @@
         <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
@@ -10877,7 +10974,7 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>153</v>
+        <v>508</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>20</v>
@@ -10886,23 +10983,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -10914,17 +11011,15 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10961,31 +11056,31 @@
         <v>20</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
@@ -11003,25 +11098,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -11033,15 +11126,17 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>504</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>505</v>
+        <v>180</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -11078,16 +11173,16 @@
         <v>20</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>157</v>
@@ -11111,7 +11206,7 @@
         <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>20</v>
@@ -11120,44 +11215,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>508</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
@@ -11205,19 +11304,19 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>20</v>
@@ -11226,21 +11325,21 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AN70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="B71" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11251,7 +11350,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
@@ -11263,19 +11362,17 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -11324,13 +11421,13 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>20</v>
@@ -11345,7 +11442,7 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>20</v>
@@ -11354,12 +11451,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11382,16 +11479,18 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>20</v>
       </c>
@@ -11439,20 +11538,20 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK72" t="s" s="2">
         <v>20</v>
       </c>
@@ -11460,7 +11559,7 @@
         <v>20</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>20</v>
@@ -11469,12 +11568,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11494,23 +11593,19 @@
         <v>20</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>526</v>
+        <v>149</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>527</v>
+        <v>150</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>20</v>
       </c>
@@ -11558,7 +11653,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>531</v>
+        <v>152</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11570,7 +11665,7 @@
         <v>20</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>20</v>
@@ -11579,7 +11674,7 @@
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>532</v>
+        <v>153</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>20</v>
@@ -11588,23 +11683,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>20</v>
@@ -11613,23 +11708,21 @@
         <v>20</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>526</v>
+        <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>534</v>
+        <v>180</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>535</v>
+        <v>181</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>20</v>
       </c>
@@ -11665,31 +11758,31 @@
         <v>20</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>536</v>
+        <v>157</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>20</v>
@@ -11698,7 +11791,7 @@
         <v>20</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>532</v>
+        <v>153</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>20</v>
@@ -11707,14 +11800,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>20</v>
       </c>
@@ -11732,16 +11827,16 @@
         <v>20</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>109</v>
+        <v>530</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11768,13 +11863,13 @@
         <v>20</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>541</v>
+        <v>20</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>20</v>
@@ -11792,19 +11887,19 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>542</v>
+        <v>157</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>20</v>
@@ -11813,7 +11908,7 @@
         <v>20</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>543</v>
+        <v>20</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>20</v>
@@ -11822,12 +11917,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11850,22 +11945,20 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q76" t="s" s="2">
-        <v>547</v>
-      </c>
+      <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
         <v>20</v>
       </c>
@@ -11909,7 +12002,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11930,7 +12023,7 @@
         <v>20</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>20</v>
@@ -11939,12 +12032,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11967,16 +12060,20 @@
         <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
       </c>
@@ -12024,7 +12121,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -12045,7 +12142,7 @@
         <v>20</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>20</v>
@@ -12054,12 +12151,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12082,13 +12179,13 @@
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -12139,7 +12236,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -12160,7 +12257,7 @@
         <v>20</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>20</v>
@@ -12169,12 +12266,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12197,16 +12294,20 @@
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
       </c>
@@ -12254,7 +12355,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -12275,7 +12376,7 @@
         <v>20</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>20</v>
@@ -12284,12 +12385,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12312,16 +12413,20 @@
         <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>109</v>
+        <v>552</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
       </c>
@@ -12345,13 +12450,13 @@
         <v>20</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>541</v>
+        <v>20</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -12390,7 +12495,7 @@
         <v>20</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>20</v>
@@ -12399,7 +12504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>563</v>
       </c>
@@ -12415,7 +12520,7 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>20</v>
@@ -12435,9 +12540,7 @@
       <c r="M81" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="N81" t="s" s="2">
-        <v>566</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>20</v>
@@ -12464,7 +12567,9 @@
       <c r="X81" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y81" s="2"/>
+      <c r="Y81" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="Z81" t="s" s="2">
         <v>567</v>
       </c>
@@ -12490,7 +12595,7 @@
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>20</v>
@@ -12505,7 +12610,7 @@
         <v>20</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>153</v>
+        <v>569</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>20</v>
@@ -12514,12 +12619,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12530,7 +12635,7 @@
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>20</v>
@@ -12542,7 +12647,7 @@
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>571</v>
@@ -12550,14 +12655,14 @@
       <c r="M82" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N82" t="s" s="2">
-        <v>573</v>
-      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="R82" t="s" s="2">
         <v>20</v>
       </c>
@@ -12607,7 +12712,7 @@
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>20</v>
@@ -12622,7 +12727,7 @@
         <v>20</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>153</v>
+        <v>558</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>20</v>
@@ -12631,7 +12736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
         <v>575</v>
       </c>
@@ -12647,7 +12752,7 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>20</v>
@@ -12659,7 +12764,7 @@
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>109</v>
+        <v>540</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>576</v>
@@ -12667,12 +12772,8 @@
       <c r="M83" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="N83" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>579</v>
-      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>20</v>
       </c>
@@ -12696,13 +12797,13 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>580</v>
+        <v>20</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>581</v>
+        <v>20</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
@@ -12720,13 +12821,13 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>20</v>
@@ -12741,7 +12842,7 @@
         <v>20</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>20</v>
@@ -12750,12 +12851,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12778,13 +12879,13 @@
         <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12835,7 +12936,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12856,7 +12957,7 @@
         <v>20</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>20</v>
@@ -12865,12 +12966,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12893,17 +12994,15 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>168</v>
+        <v>552</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -12928,13 +13027,13 @@
         <v>20</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>594</v>
+        <v>20</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>595</v>
+        <v>20</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>20</v>
@@ -12952,7 +13051,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12973,7 +13072,7 @@
         <v>20</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>20</v>
@@ -12982,12 +13081,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13010,17 +13109,15 @@
         <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>599</v>
+        <v>109</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>20</v>
@@ -13045,13 +13142,13 @@
         <v>20</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>603</v>
+        <v>566</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>604</v>
+        <v>567</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>20</v>
@@ -13069,7 +13166,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -13090,21 +13187,21 @@
         <v>20</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>607</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13115,7 +13212,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>20</v>
@@ -13127,20 +13224,18 @@
         <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>20</v>
       </c>
@@ -13164,13 +13259,11 @@
         <v>20</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>613</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>20</v>
@@ -13188,13 +13281,13 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>20</v>
@@ -13209,21 +13302,21 @@
         <v>20</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>616</v>
+        <v>153</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>617</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13234,7 +13327,7 @@
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>20</v>
@@ -13246,18 +13339,18 @@
         <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>168</v>
+        <v>596</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>621</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>20</v>
       </c>
@@ -13281,11 +13374,13 @@
         <v>20</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y88" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z88" t="s" s="2">
-        <v>622</v>
+        <v>20</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>20</v>
@@ -13303,13 +13398,13 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>20</v>
@@ -13324,21 +13419,21 @@
         <v>20</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>624</v>
+        <v>153</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>625</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13349,7 +13444,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>20</v>
@@ -13361,19 +13456,19 @@
         <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>20</v>
@@ -13398,11 +13493,13 @@
         <v>20</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y89" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="Z89" t="s" s="2">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>20</v>
@@ -13420,13 +13517,13 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>20</v>
@@ -13441,21 +13538,21 @@
         <v>20</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>634</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13466,7 +13563,7 @@
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>20</v>
@@ -13478,13 +13575,13 @@
         <v>90</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>493</v>
+        <v>611</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13535,13 +13632,13 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>20</v>
@@ -13556,21 +13653,21 @@
         <v>20</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>20</v>
+        <v>615</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>639</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13590,18 +13687,20 @@
         <v>20</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>150</v>
+        <v>617</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>619</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>20</v>
@@ -13626,13 +13725,13 @@
         <v>20</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>20</v>
+        <v>620</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>20</v>
+        <v>621</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>20</v>
@@ -13650,7 +13749,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>152</v>
+        <v>622</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13662,7 +13761,7 @@
         <v>20</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>20</v>
@@ -13671,7 +13770,7 @@
         <v>20</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>153</v>
+        <v>623</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>20</v>
@@ -13680,23 +13779,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>20</v>
@@ -13705,19 +13804,19 @@
         <v>20</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>134</v>
+        <v>625</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>180</v>
+        <v>626</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>181</v>
+        <v>627</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>182</v>
+        <v>628</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13743,43 +13842,43 @@
         <v>20</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>20</v>
+        <v>629</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>20</v>
+        <v>630</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>157</v>
+        <v>631</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>20</v>
@@ -13788,25 +13887,23 @@
         <v>20</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>153</v>
+        <v>632</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>20</v>
+        <v>633</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
         <v>20</v>
       </c>
@@ -13824,19 +13921,23 @@
         <v>20</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>644</v>
+        <v>168</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>638</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
       </c>
@@ -13860,13 +13961,13 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>20</v>
+        <v>639</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>20</v>
+        <v>640</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -13884,19 +13985,19 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>157</v>
+        <v>641</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>20</v>
@@ -13905,21 +14006,21 @@
         <v>20</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>20</v>
+        <v>642</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>20</v>
+        <v>643</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13945,14 +14046,14 @@
         <v>168</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -13977,13 +14078,11 @@
         <v>20</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -14001,7 +14100,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -14022,21 +14121,21 @@
         <v>20</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>20</v>
+        <v>650</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14059,19 +14158,19 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O95" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -14096,13 +14195,11 @@
         <v>20</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y95" s="2"/>
       <c r="Z95" t="s" s="2">
-        <v>20</v>
+        <v>657</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>20</v>
@@ -14120,7 +14217,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -14141,21 +14238,21 @@
         <v>20</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14166,7 +14263,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>20</v>
@@ -14178,20 +14275,16 @@
         <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>664</v>
+        <v>519</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>20</v>
       </c>
@@ -14239,13 +14332,13 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>20</v>
@@ -14260,21 +14353,21 @@
         <v>20</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>670</v>
+        <v>20</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14294,23 +14387,19 @@
         <v>20</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>673</v>
+        <v>149</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>674</v>
+        <v>150</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>20</v>
       </c>
@@ -14358,7 +14447,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>678</v>
+        <v>152</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -14370,7 +14459,7 @@
         <v>20</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>20</v>
@@ -14379,32 +14468,32 @@
         <v>20</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>679</v>
+        <v>153</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>680</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>20</v>
@@ -14416,15 +14505,17 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>20</v>
@@ -14461,31 +14552,31 @@
         <v>20</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>20</v>
@@ -14503,23 +14594,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>667</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>669</v>
+      </c>
       <c r="D99" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>20</v>
@@ -14531,17 +14624,15 @@
         <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>134</v>
+        <v>670</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>180</v>
+        <v>671</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>20</v>
@@ -14578,16 +14669,16 @@
         <v>20</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>157</v>
@@ -14611,7 +14702,7 @@
         <v>20</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>20</v>
@@ -14620,12 +14711,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14648,16 +14739,18 @@
         <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>684</v>
+        <v>168</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>676</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>20</v>
       </c>
@@ -14681,13 +14774,13 @@
         <v>20</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>20</v>
+        <v>677</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>20</v>
+        <v>678</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>20</v>
@@ -14705,7 +14798,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14726,21 +14819,21 @@
         <v>20</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>688</v>
+        <v>20</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>20</v>
+        <v>680</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14763,16 +14856,20 @@
         <v>90</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="L101" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>686</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>20</v>
       </c>
@@ -14820,7 +14917,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14841,21 +14938,21 @@
         <v>20</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>693</v>
+        <v>659</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>20</v>
+        <v>688</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14878,19 +14975,19 @@
         <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>20</v>
@@ -14939,7 +15036,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14960,21 +15057,21 @@
         <v>20</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>20</v>
+        <v>697</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14997,17 +15094,19 @@
         <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>20</v>
@@ -15056,7 +15155,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -15077,21 +15176,21 @@
         <v>20</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>20</v>
+        <v>706</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15114,13 +15213,13 @@
         <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>707</v>
+        <v>149</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>708</v>
+        <v>150</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>709</v>
+        <v>151</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15171,7 +15270,7 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>706</v>
+        <v>152</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -15183,16 +15282,16 @@
         <v>20</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>710</v>
+        <v>20</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>711</v>
+        <v>153</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>20</v>
@@ -15201,23 +15300,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>20</v>
@@ -15229,15 +15328,17 @@
         <v>20</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>20</v>
@@ -15274,31 +15375,31 @@
         <v>20</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>20</v>
@@ -15316,23 +15417,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>20</v>
@@ -15341,20 +15442,18 @@
         <v>20</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>134</v>
+        <v>710</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>180</v>
+        <v>711</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>20</v>
@@ -15403,19 +15502,19 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>157</v>
+        <v>713</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>20</v>
@@ -15424,7 +15523,7 @@
         <v>20</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>153</v>
+        <v>714</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>20</v>
@@ -15433,48 +15532,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>134</v>
+        <v>710</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>445</v>
+        <v>716</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>20</v>
       </c>
@@ -15522,19 +15617,19 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>447</v>
+        <v>718</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>20</v>
@@ -15543,7 +15638,7 @@
         <v>20</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>132</v>
+        <v>719</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>20</v>
@@ -15552,12 +15647,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15568,7 +15663,7 @@
         <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>20</v>
@@ -15577,21 +15672,23 @@
         <v>20</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>723</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>724</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>20</v>
       </c>
@@ -15639,7 +15736,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15660,7 +15757,7 @@
         <v>20</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>20</v>
@@ -15669,12 +15766,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15694,19 +15791,21 @@
         <v>20</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>149</v>
+        <v>710</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>150</v>
+        <v>728</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>151</v>
+        <v>729</v>
       </c>
       <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>20</v>
       </c>
@@ -15754,7 +15853,7 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>152</v>
+        <v>731</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15766,7 +15865,7 @@
         <v>20</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>20</v>
@@ -15775,7 +15874,7 @@
         <v>20</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>153</v>
+        <v>726</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>20</v>
@@ -15784,23 +15883,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>20</v>
@@ -15812,17 +15911,15 @@
         <v>20</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>134</v>
+        <v>733</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>180</v>
+        <v>734</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>20</v>
@@ -15871,28 +15968,28 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>157</v>
+        <v>732</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>20</v>
+        <v>736</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>153</v>
+        <v>737</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>20</v>
@@ -15901,48 +15998,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>445</v>
+        <v>150</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>20</v>
       </c>
@@ -15990,19 +16083,19 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>447</v>
+        <v>152</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>20</v>
@@ -16011,7 +16104,7 @@
         <v>20</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>20</v>
@@ -16020,23 +16113,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>20</v>
@@ -16048,15 +16141,17 @@
         <v>20</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>724</v>
+        <v>134</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>725</v>
+        <v>180</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>20</v>
@@ -16105,19 +16200,19 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>723</v>
+        <v>157</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>20</v>
@@ -16126,7 +16221,7 @@
         <v>20</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>727</v>
+        <v>153</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>20</v>
@@ -16135,44 +16230,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>729</v>
+        <v>134</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>730</v>
+        <v>471</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>20</v>
       </c>
@@ -16220,19 +16319,19 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>728</v>
+        <v>473</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>20</v>
@@ -16241,7 +16340,7 @@
         <v>20</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>732</v>
+        <v>132</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>20</v>
@@ -16250,12 +16349,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16278,15 +16377,17 @@
         <v>20</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>743</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>744</v>
+      </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>20</v>
@@ -16335,7 +16436,7 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -16356,7 +16457,7 @@
         <v>20</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>20</v>
@@ -16365,12 +16466,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16393,20 +16494,16 @@
         <v>20</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>737</v>
+        <v>149</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>738</v>
+        <v>150</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>741</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>20</v>
       </c>
@@ -16454,7 +16551,7 @@
         <v>20</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>736</v>
+        <v>152</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16466,16 +16563,16 @@
         <v>20</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>742</v>
+        <v>20</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>743</v>
+        <v>153</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>20</v>
@@ -16484,23 +16581,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>20</v>
@@ -16512,15 +16609,17 @@
         <v>20</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>20</v>
@@ -16569,19 +16668,19 @@
         <v>20</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>20</v>
@@ -16599,16 +16698,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>179</v>
+        <v>470</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16621,24 +16720,26 @@
         <v>20</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>180</v>
+        <v>471</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>181</v>
+        <v>472</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="O117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>20</v>
       </c>
@@ -16674,19 +16775,19 @@
         <v>20</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AD117" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>157</v>
+        <v>473</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16707,7 +16808,7 @@
         <v>20</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>20</v>
@@ -16716,12 +16817,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16729,7 +16830,7 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>89</v>
@@ -16741,20 +16842,18 @@
         <v>20</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>340</v>
+        <v>750</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>749</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>20</v>
@@ -16803,7 +16902,7 @@
         <v>20</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16812,7 +16911,7 @@
         <v>89</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>751</v>
+        <v>20</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>101</v>
@@ -16824,16 +16923,16 @@
         <v>20</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>753</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
         <v>754</v>
       </c>
@@ -16858,27 +16957,23 @@
         <v>20</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>340</v>
+        <v>755</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="N119" t="s" s="2">
         <v>757</v>
       </c>
+      <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q119" t="s" s="2">
-        <v>758</v>
-      </c>
+      <c r="Q119" s="2"/>
       <c r="R119" t="s" s="2">
         <v>20</v>
       </c>
@@ -16922,7 +17017,7 @@
         <v>20</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16931,7 +17026,7 @@
         <v>89</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>751</v>
+        <v>20</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>101</v>
@@ -16943,21 +17038,21 @@
         <v>20</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>761</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16968,7 +17063,7 @@
         <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>20</v>
@@ -16980,17 +17075,15 @@
         <v>20</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>765</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>20</v>
@@ -17039,7 +17132,7 @@
         <v>20</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -17057,24 +17150,24 @@
         <v>20</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>766</v>
+        <v>20</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>768</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17085,7 +17178,7 @@
         <v>79</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>20</v>
@@ -17097,16 +17190,20 @@
         <v>20</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>724</v>
+        <v>763</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
+        <v>765</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>767</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>20</v>
       </c>
@@ -17154,7 +17251,7 @@
         <v>20</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -17172,24 +17269,24 @@
         <v>20</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>774</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17212,17 +17309,15 @@
         <v>20</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>729</v>
+        <v>149</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>776</v>
+        <v>150</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>778</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>20</v>
@@ -17271,7 +17366,7 @@
         <v>20</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>775</v>
+        <v>152</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -17283,16 +17378,16 @@
         <v>20</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>779</v>
+        <v>20</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>780</v>
+        <v>153</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>20</v>
@@ -17301,23 +17396,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>20</v>
@@ -17329,15 +17424,17 @@
         <v>20</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>20</v>
@@ -17374,31 +17471,31 @@
         <v>20</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC123" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD123" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>20</v>
@@ -17416,23 +17513,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>20</v>
@@ -17441,19 +17538,19 @@
         <v>20</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>180</v>
+        <v>773</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>181</v>
+        <v>774</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>182</v>
+        <v>775</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17491,31 +17588,31 @@
         <v>20</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AD124" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>157</v>
+        <v>776</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>20</v>
+        <v>777</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>20</v>
@@ -17524,21 +17621,21 @@
         <v>20</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>153</v>
+        <v>778</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>20</v>
+        <v>779</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17561,69 +17658,69 @@
         <v>90</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>526</v>
+        <v>340</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q125" t="s" s="2">
         <v>784</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="R125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF125" t="s" s="2">
         <v>785</v>
       </c>
-      <c r="N125" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="P125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>788</v>
-      </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
       </c>
@@ -17631,7 +17728,7 @@
         <v>89</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>20</v>
+        <v>777</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>101</v>
@@ -17643,21 +17740,21 @@
         <v>20</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17668,36 +17765,34 @@
         <v>79</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>109</v>
+        <v>611</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>794</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q126" t="s" s="2">
-        <v>795</v>
-      </c>
+      <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
         <v>20</v>
       </c>
@@ -17717,13 +17812,13 @@
         <v>20</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>796</v>
+        <v>20</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>797</v>
+        <v>20</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>20</v>
@@ -17741,7 +17836,7 @@
         <v>20</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17759,24 +17854,24 @@
         <v>20</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>20</v>
+        <v>792</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17787,7 +17882,7 @@
         <v>79</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>20</v>
@@ -17796,21 +17891,19 @@
         <v>20</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>149</v>
+        <v>750</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>804</v>
-      </c>
+      <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>20</v>
       </c>
@@ -17858,7 +17951,7 @@
         <v>20</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -17876,24 +17969,24 @@
         <v>20</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>20</v>
+        <v>798</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17913,21 +18006,21 @@
         <v>20</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>103</v>
+        <v>755</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>811</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>20</v>
       </c>
@@ -17975,7 +18068,7 @@
         <v>20</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -17984,7 +18077,7 @@
         <v>89</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>813</v>
+        <v>20</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>101</v>
@@ -17993,24 +18086,24 @@
         <v>20</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>20</v>
+        <v>805</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO128" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
         <v>807</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="2">
-        <v>815</v>
-      </c>
       <c r="B129" t="s" s="2">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18030,23 +18123,19 @@
         <v>20</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>816</v>
+        <v>150</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>819</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>20</v>
       </c>
@@ -18094,7 +18183,7 @@
         <v>20</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>820</v>
+        <v>152</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -18106,7 +18195,7 @@
         <v>20</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>20</v>
@@ -18115,32 +18204,32 @@
         <v>20</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>821</v>
+        <v>153</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>807</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>20</v>
@@ -18152,15 +18241,17 @@
         <v>20</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>823</v>
+        <v>134</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>824</v>
+        <v>180</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>20</v>
@@ -18197,31 +18288,31 @@
         <v>20</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC130" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD130" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>822</v>
+        <v>157</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>20</v>
@@ -18230,21 +18321,21 @@
         <v>20</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>826</v>
+        <v>153</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18264,19 +18355,23 @@
         <v>20</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>707</v>
+        <v>552</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
+        <v>811</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>813</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>20</v>
       </c>
@@ -18324,7 +18419,7 @@
         <v>20</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -18342,24 +18437,24 @@
         <v>20</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>830</v>
+        <v>20</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>20</v>
+        <v>816</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18370,32 +18465,36 @@
         <v>79</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>150</v>
+        <v>818</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>151</v>
+        <v>819</v>
       </c>
       <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>820</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>821</v>
+      </c>
       <c r="R132" t="s" s="2">
         <v>20</v>
       </c>
@@ -18415,13 +18514,13 @@
         <v>20</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>20</v>
+        <v>822</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>20</v>
+        <v>823</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>20</v>
@@ -18439,7 +18538,7 @@
         <v>20</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>152</v>
+        <v>824</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -18451,7 +18550,7 @@
         <v>20</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>20</v>
@@ -18460,32 +18559,32 @@
         <v>20</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>153</v>
+        <v>825</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>20</v>
+        <v>826</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>20</v>
@@ -18494,21 +18593,21 @@
         <v>20</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>180</v>
+        <v>828</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O133" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>830</v>
+      </c>
       <c r="P133" t="s" s="2">
         <v>20</v>
       </c>
@@ -18556,19 +18655,19 @@
         <v>20</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>157</v>
+        <v>831</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>20</v>
@@ -18577,16 +18676,16 @@
         <v>20</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>153</v>
+        <v>832</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>20</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
         <v>834</v>
       </c>
@@ -18595,38 +18694,36 @@
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>445</v>
+        <v>835</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
-        <v>205</v>
+        <v>837</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>20</v>
@@ -18675,19 +18772,19 @@
         <v>20</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>447</v>
+        <v>838</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>20</v>
+        <v>839</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>20</v>
@@ -18696,21 +18793,21 @@
         <v>20</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>132</v>
+        <v>840</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>20</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18718,7 +18815,7 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>89</v>
@@ -18730,21 +18827,23 @@
         <v>20</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>599</v>
+        <v>109</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="O135" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>845</v>
+      </c>
       <c r="P135" t="s" s="2">
         <v>20</v>
       </c>
@@ -18768,13 +18867,13 @@
         <v>20</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>839</v>
+        <v>20</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>840</v>
+        <v>20</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>20</v>
@@ -18792,10 +18891,10 @@
         <v>20</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>89</v>
@@ -18810,24 +18909,24 @@
         <v>20</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>830</v>
+        <v>20</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18838,7 +18937,7 @@
         <v>79</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>20</v>
@@ -18850,13 +18949,13 @@
         <v>20</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>168</v>
+        <v>849</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -18883,13 +18982,13 @@
         <v>20</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>846</v>
+        <v>20</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>847</v>
+        <v>20</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>20</v>
@@ -18907,7 +19006,7 @@
         <v>20</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18925,24 +19024,24 @@
         <v>20</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>848</v>
+        <v>20</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>850</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18965,13 +19064,13 @@
         <v>20</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>852</v>
+        <v>733</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -19022,7 +19121,7 @@
         <v>20</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -19037,13 +19136,13 @@
         <v>101</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>855</v>
+        <v>20</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>20</v>
@@ -19052,23 +19151,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>858</v>
+        <v>20</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>20</v>
@@ -19080,17 +19179,15 @@
         <v>20</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>859</v>
+        <v>149</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>860</v>
+        <v>150</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>862</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>20</v>
@@ -19139,19 +19236,19 @@
         <v>20</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>857</v>
+        <v>152</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>20</v>
@@ -19160,7 +19257,7 @@
         <v>20</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>863</v>
+        <v>153</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>20</v>
@@ -19169,16 +19266,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19197,16 +19294,16 @@
         <v>20</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>865</v>
+        <v>134</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>866</v>
+        <v>180</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>867</v>
+        <v>181</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>868</v>
+        <v>182</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19256,7 +19353,7 @@
         <v>20</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>864</v>
+        <v>157</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -19268,25 +19365,743 @@
         <v>20</v>
       </c>
       <c r="AJ139" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="P140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q140" s="2"/>
+      <c r="R140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="O141" s="2"/>
+      <c r="P141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q141" s="2"/>
+      <c r="R141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK139" t="s" s="2">
+      <c r="AK141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
         <v>869</v>
       </c>
-      <c r="AL139" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM139" t="s" s="2">
+      <c r="B142" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>870</v>
       </c>
-      <c r="AN139" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO139" t="s" s="2">
+      <c r="M142" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q142" s="2"/>
+      <c r="R142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q143" s="2"/>
+      <c r="R143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q145" s="2"/>
+      <c r="R145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO145" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO145">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI144">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest3.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
